--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,52 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Election_ID</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,33 +59,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -104,10 +168,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -145,71 +209,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -237,7 +301,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -260,11 +324,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -273,13 +337,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -289,7 +353,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -298,7 +362,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -307,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -315,10 +379,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -383,139 +447,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.5546875" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Election_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>DOB</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Flag</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>38435</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="4" t="n">
+        <v>1234567899</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>38434</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="4" t="n">
+        <v>1234567898</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>38433</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="1" t="n"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="1" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="1" t="n"/>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="1" t="n"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="1" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="1" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="5" t="n"/>
+      <c r="C14" s="1" t="n"/>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="1" t="n"/>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="1" t="n"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="1" t="n"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="1" t="n"/>
+    </row>
+    <row r="19" ht="19.5" customHeight="1">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="1" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="5" t="n"/>
+      <c r="C20" s="1" t="n"/>
+    </row>
+    <row r="21" ht="19.5" customHeight="1">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="5" t="n"/>
+      <c r="C21" s="1" t="n"/>
+    </row>
+    <row r="22" ht="19.5" customHeight="1">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="1" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="5" t="n"/>
+      <c r="C23" s="1" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="5" t="n"/>
+      <c r="C24" s="1" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="5" t="n"/>
+      <c r="C25" s="1" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="1" t="n"/>
+    </row>
+    <row r="27" ht="18.75" customHeight="1">
+      <c r="A27" s="1" t="n">
         <v>1234567890</v>
       </c>
-      <c r="B2" s="2">
-        <v>38435</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
+      <c r="B27" s="2" t="n">
+        <v>25569.22946759259</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" customHeight="1">
+      <c r="A28" s="1" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>25569.22946759259</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" customHeight="1">
+      <c r="A29" s="1" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>25569.22946759259</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" customHeight="1">
+      <c r="A30" s="1" t="n">
         <v>1234567899</v>
       </c>
-      <c r="B3" s="2">
-        <v>38407</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>1234567898</v>
-      </c>
-      <c r="B4" s="2">
-        <v>38070</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="B30" s="6" t="n">
+        <v>25569.22946759259</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/userdata.xlsx
+++ b/userdata.xlsx
@@ -1,49 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\king\OneDrive\Desktop\Master_1\Online-Voting-System-using-python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F8C014-9DFE-443D-8450-746057448280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Election_ID</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="3">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +62,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -64,16 +79,48 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -211,7 +258,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -222,27 +268,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -264,7 +314,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +372,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -335,13 +385,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -353,148 +402,228 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="7" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Election_ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>DOB</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Flag</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
         <v>1234567890</v>
       </c>
-      <c r="B2" t="str">
-        <v>2005/03/24</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B2" s="5">
+        <v>38435</v>
+      </c>
+      <c r="C2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1234567899</v>
       </c>
-      <c r="B3" t="str">
-        <v>2005/03/23</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B3" s="5">
+        <v>38434</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>1234567898</v>
       </c>
-      <c r="B4" t="str">
-        <v>2005/03/22</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B4" s="5">
+        <v>38433</v>
+      </c>
+      <c r="C4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>1,234,567,890</v>
-      </c>
-      <c r="B27" t="str">
-        <v>1970-01-01 5:30:26</v>
-      </c>
-      <c r="C27" t="str">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25569.229462604169</v>
+      </c>
+      <c r="C27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>1,234,567,890</v>
-      </c>
-      <c r="B28" t="str">
-        <v>1970-01-01 5:30:26</v>
-      </c>
-      <c r="C28" t="str">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B28" s="2">
+        <v>25569.229462604169</v>
+      </c>
+      <c r="C28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>1,234,567,890</v>
-      </c>
-      <c r="B29" t="str">
-        <v>1970-01-01 5:30:26</v>
-      </c>
-      <c r="C29" t="str">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="B29" s="2">
+        <v>25569.229462604169</v>
+      </c>
+      <c r="C29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>1,234,567,899</v>
-      </c>
-      <c r="B30" t="str">
-        <v>1970-01-01 5:30:26</v>
-      </c>
-      <c r="C30" t="str">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1234567899</v>
+      </c>
+      <c r="B30" s="6">
+        <v>25569.229462604169</v>
+      </c>
+      <c r="C30" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C30"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>